--- a/提单号识别船东/船东单号规则2.xlsx
+++ b/提单号识别船东/船东单号规则2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="18420" windowWidth="9210" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$36</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>船东</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>末尾无英文</t>
+  </si>
+  <si>
+    <t>新添加单号规则</t>
   </si>
   <si>
     <r>
@@ -61,6 +64,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>12位英文数字混合（（ONE）ONEY 12位英文数字混合（末尾是数字））</t>
     </r>
     <r>
@@ -80,6 +89,9 @@
     <t>首位数字+三位英文+6位数字                                                       （（HAL （HASL）KKC）英文数字混合12位）                                 （（HPL （HLCU））8位纯数字）                                  （（ONE）ONEY 12位英文数字混合（末尾是数字））</t>
   </si>
   <si>
+    <t>yurtp0986u45</t>
+  </si>
+  <si>
     <t>ANL,APL,CMA,CNC,DEL，USL</t>
   </si>
   <si>
@@ -106,10 +118,13 @@
     </r>
   </si>
   <si>
-    <t>前三位英文+7位数字或前四位英文+6位数字</t>
+    <t xml:space="preserve">前三位英文+7位数字或前四位英文+6位数字 </t>
   </si>
   <si>
     <t>(APL)APLU</t>
+  </si>
+  <si>
+    <t>五家 (PAS0154862B) 3+ 7+1</t>
   </si>
   <si>
     <t>(CMA)CMDU</t>
@@ -160,12 +175,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">10位纯数字 </t>
     </r>
     <r>
@@ -236,7 +245,7 @@
     <t>EPIR+6位英文+6位数字</t>
   </si>
   <si>
-    <t>ESL+6位英文+7位数字</t>
+    <t>ESL+6位英文+7位数字 esliuyhtg6985478</t>
   </si>
   <si>
     <t>FESCO</t>
@@ -657,7 +666,7 @@
     </r>
   </si>
   <si>
-    <t>9位英文数字混合</t>
+    <t>9位英文数字混合 985698549654</t>
   </si>
   <si>
     <t>SINO</t>
@@ -772,6 +781,9 @@
       </rPr>
       <t>8 9 10 11 12</t>
     </r>
+  </si>
+  <si>
+    <t>logpol58965362</t>
   </si>
 </sst>
 </file>
@@ -779,10 +791,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -806,6 +818,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="6"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -827,14 +845,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +855,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,75 +892,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -933,9 +900,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,35 +990,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1026,31 +1038,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,151 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,17 +1232,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,21 +1246,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,26 +1261,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,6 +1288,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1325,10 +1337,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1337,137 +1349,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,7 +1498,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1501,7 +1516,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1510,7 +1528,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1522,7 +1540,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1873,24 +1891,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="21" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="21" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="34.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="40.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="77.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="56" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="3" customWidth="1"/>
-    <col min="6" max="16382" width="11.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="3" customWidth="1"/>
+    <col min="7" max="16382" width="11.125" style="3" customWidth="1"/>
     <col min="16383" max="16384" width="11.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1906,418 +1925,430 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="68" customHeight="1" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="65" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="8"/>
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>38</v>
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="10"/>
+      <c r="A17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>46</v>
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>53</v>
+      <c r="A21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="13"/>
+      <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="14" t="s">
-        <v>61</v>
+      <c r="A24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A25" s="15" t="s">
-        <v>62</v>
+      <c r="A25" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>66</v>
+      <c r="A26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A29" s="16" t="s">
-        <v>76</v>
+      <c r="A29" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="5:5">
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A34" s="17" t="s">
-        <v>87</v>
+      <c r="A34" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="47" customHeight="1" spans="1:5">
-      <c r="A35" s="17" t="s">
-        <v>91</v>
+      <c r="A35" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" ht="90" customHeight="1" spans="1:1">
-      <c r="A36" s="18"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" ht="90" customHeight="1" spans="1:4">
+      <c r="A36" s="20"/>
+      <c r="D36" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E36">
